--- a/Data/EC/NIT-9007500231.xlsx
+++ b/Data/EC/NIT-9007500231.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FF79BD-E91E-4288-9ED9-62E16D1BC886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3CE47E-6B93-444E-BBC4-D1C6B0A568A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B56470F-32C8-4ADF-9AE8-0F2BF3AB312F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFA2E9BD-C3BC-4A6D-99D1-B514468EF5A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73157607</t>
+  </si>
+  <si>
+    <t>LUIS JOSE VILLALOBOS MELENDEZ</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>45541297</t>
+  </si>
+  <si>
+    <t>LEIDIS OVIEDO MONTIEL</t>
+  </si>
+  <si>
+    <t>1050955376</t>
+  </si>
+  <si>
+    <t>LAURA HORTENCIA ROMERO TABORDA</t>
+  </si>
+  <si>
     <t>1128057345</t>
   </si>
   <si>
@@ -89,64 +131,22 @@
     <t>VIVIANA MARIA ARDILA OSPINO</t>
   </si>
   <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
     <t>1050958803</t>
   </si>
   <si>
     <t>DANIELA OJEDA CAMPO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>73157607</t>
-  </si>
-  <si>
-    <t>LUIS JOSE VILLALOBOS MELENDEZ</t>
-  </si>
-  <si>
-    <t>45541297</t>
-  </si>
-  <si>
-    <t>LEIDIS OVIEDO MONTIEL</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1050955376</t>
-  </si>
-  <si>
-    <t>LAURA HORTENCIA ROMERO TABORDA</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCB1381-007E-E8A7-4B5D-7EB177D91004}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B622E7B-ACDE-A961-A330-37584C91B23F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A770E1E8-8955-42E3-BC83-53F08E2970B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDF1FA5-BC9F-4E45-BC48-8166754BBA91}">
   <dimension ref="B2:J72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1089,10 +1089,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31510</v>
+        <v>23187</v>
       </c>
       <c r="G16" s="18">
-        <v>787741</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1103,19 +1103,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>31510</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>787741</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1126,19 +1126,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>31510</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>787741</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1149,19 +1149,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1172,19 +1172,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1195,19 +1195,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1218,19 +1218,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1241,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1264,19 +1264,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1287,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1310,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1333,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1356,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1379,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1402,13 +1402,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1425,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1448,13 +1448,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1471,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1494,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1517,13 +1517,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1540,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1563,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1586,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>33125</v>
+        <v>31510</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>3000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1609,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>33125</v>
+        <v>31510</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>787741</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1632,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>31510</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>787741</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1655,16 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1678,13 +1678,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1701,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F43" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1724,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1747,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1776,13 +1776,13 @@
         <v>30</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1793,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F47" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1822,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F48" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1839,13 +1839,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1862,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1885,19 +1885,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F51" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1917,10 +1917,10 @@
         <v>34</v>
       </c>
       <c r="F52" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1931,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1954,16 +1954,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -1977,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2000,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F56" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2023,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F57" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2046,13 +2046,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2069,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F59" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2092,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F60" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2115,13 +2115,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2138,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F62" s="18">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2161,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2184,16 +2184,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2207,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F65" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2230,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F66" s="24">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="24">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>

--- a/Data/EC/NIT-9007500231.xlsx
+++ b/Data/EC/NIT-9007500231.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3CE47E-6B93-444E-BBC4-D1C6B0A568A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DCD6EA-583B-4710-BDDC-082D913E8CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFA2E9BD-C3BC-4A6D-99D1-B514468EF5A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C451755D-7160-4D80-809F-DA0747869A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,88 +65,88 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128057345</t>
+  </si>
+  <si>
+    <t>STEFANY BILKERDYK SALGUEDO</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>73201199</t>
+  </si>
+  <si>
+    <t>TOMAS CAMILO ARIZA POLO</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1051445409</t>
+  </si>
+  <si>
+    <t>VIVIANA MARIA ARDILA OSPINO</t>
+  </si>
+  <si>
+    <t>1050958803</t>
+  </si>
+  <si>
+    <t>DANIELA OJEDA CAMPO</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>73157607</t>
   </si>
   <si>
     <t>LUIS JOSE VILLALOBOS MELENDEZ</t>
   </si>
   <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>45541297</t>
+  </si>
+  <si>
+    <t>LEIDIS OVIEDO MONTIEL</t>
+  </si>
+  <si>
+    <t>1050955376</t>
+  </si>
+  <si>
+    <t>LAURA HORTENCIA ROMERO TABORDA</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
     <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>45541297</t>
-  </si>
-  <si>
-    <t>LEIDIS OVIEDO MONTIEL</t>
-  </si>
-  <si>
-    <t>1050955376</t>
-  </si>
-  <si>
-    <t>LAURA HORTENCIA ROMERO TABORDA</t>
-  </si>
-  <si>
-    <t>1128057345</t>
-  </si>
-  <si>
-    <t>STEFANY BILKERDYK SALGUEDO</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>73201199</t>
-  </si>
-  <si>
-    <t>TOMAS CAMILO ARIZA POLO</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1051445409</t>
-  </si>
-  <si>
-    <t>VIVIANA MARIA ARDILA OSPINO</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1050958803</t>
-  </si>
-  <si>
-    <t>DANIELA OJEDA CAMPO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,7 +245,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +460,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +504,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B622E7B-ACDE-A961-A330-37584C91B23F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE22837-341B-FD89-62E0-EEE4FEC240BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDF1FA5-BC9F-4E45-BC48-8166754BBA91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9005C6-5923-4B58-849E-F4DBC7FD388B}">
   <dimension ref="B2:J72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1089,10 +1089,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23187</v>
+        <v>31510</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>787741</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1103,19 +1103,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>31510</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>787741</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1126,19 +1126,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>31510</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>787741</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1149,19 +1149,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1172,19 +1172,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1195,19 +1195,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1218,19 +1218,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1241,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1264,19 +1264,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F24" s="18">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1287,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1310,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1333,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1356,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1379,13 +1379,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1402,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1425,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1448,13 +1448,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1471,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1494,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1517,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1540,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1563,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1586,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
-        <v>31510</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>3000000</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1609,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
-        <v>31510</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>787741</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1632,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
-        <v>31510</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>787741</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1655,16 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F41" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1678,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1701,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1730,13 +1730,13 @@
         <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1747,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1770,13 +1770,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1793,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1816,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1845,13 +1845,13 @@
         <v>30</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1862,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1885,10 +1885,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>33</v>
@@ -1908,19 +1908,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1931,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1954,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F54" s="18">
-        <v>21874</v>
+        <v>33125</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1977,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2000,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2023,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2046,19 +2046,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2069,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2092,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2115,13 +2115,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2138,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2161,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2184,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2207,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2230,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D66" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="F66" s="24">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G66" s="24">
         <v>781242</v>
